--- a/Income/TRU_inc.xlsx
+++ b/Income/TRU_inc.xlsx
@@ -1875,16 +1875,16 @@
         <v>0.5258</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.5343</v>
+        <v>0.5678</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.5679</v>
+        <v>0.6015</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.6065</v>
+        <v>0.6398</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.6368</v>
+        <v>0.6709</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.6686</v>
@@ -2355,16 +2355,16 @@
         <v>0.211</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.2017</v>
+        <v>0.2058</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0.2395</v>
+        <v>0.2436</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.2087</v>
+        <v>0.2128</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.2135</v>
+        <v>0.2177</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0.2062</v>
@@ -3874,16 +3874,16 @@
         <v>0.3567</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0.3608</v>
+        <v>0.3584</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>0.3639</v>
+        <v>0.3615</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0.3734</v>
+        <v>0.371</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>0.3676</v>
+        <v>0.3652</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>0.366</v>
@@ -3993,16 +3993,16 @@
         <v>0.2899</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0.2749</v>
+        <v>0.2791</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>0.3129</v>
+        <v>0.3171</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0.2816</v>
+        <v>0.2857</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>0.2882</v>
+        <v>0.2924</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>0.2813</v>
